--- a/interviewExperience.xlsx
+++ b/interviewExperience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFDE195-A01F-43C3-BA74-B0297AB9EE71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09639D3-4866-4862-A475-B94C34BEE173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -39,14 +39,7 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Invoice Mart</t>
-  </si>
-  <si>
     <t>Infosys</t>
-  </si>
-  <si>
-    <t>Angular - promise, data binding
-Java - Java 15 features, Java 8 features, Exception, Checked vs unchecked exception, Interface, streams and its functions</t>
   </si>
   <si>
     <t>TringApps</t>
@@ -66,6 +59,37 @@
   <si>
     <t>HM round - 
 projects, elastic search, java, binary search , bfs</t>
+  </si>
+  <si>
+    <t>Invoice Mart, thane</t>
+  </si>
+  <si>
+    <t>Ebix, Andheri East - Walkin</t>
+  </si>
+  <si>
+    <t>Aira Matrix , thane  - Walkin</t>
+  </si>
+  <si>
+    <t>cleared coding test.
+Failed In interview</t>
+  </si>
+  <si>
+    <t>cleared java mcq and coding test.
+Failed In interview</t>
+  </si>
+  <si>
+    <t>how scalability achieved, redis data type, concurrent hashmap internal working, difference in jdbc and jpa mapping, why jetty used , difference in jetty and tomcat</t>
+  </si>
+  <si>
+    <t>Angular - promise, data binding
+Java - Java 15 features, Java 8 features, Exception, Checked vs unchecked exception, Interface, streams and its functions, marker interface, functional interface</t>
+  </si>
+  <si>
+    <t>coding cleared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical round - 
+Who provide more abstraction class or interface and why, is methods in interface are by default abstact and why, transient keyword, Finally block, OOPs , maven,  maven build clean, @configuration, @autowired, resttemplate, </t>
   </si>
 </sst>
 </file>
@@ -89,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,14 +121,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -421,86 +461,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE6597-3846-4001-8144-6C55CE1F05D9}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45736</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45738</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45738</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45738</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45742</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45774</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45774</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/interviewExperience.xlsx
+++ b/interviewExperience.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09639D3-4866-4862-A475-B94C34BEE173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFB761F-3AAA-4DC4-BFBA-5CB5DFAFB2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -90,6 +90,16 @@
   <si>
     <t xml:space="preserve">Technical round - 
 Who provide more abstraction class or interface and why, is methods in interface are by default abstact and why, transient keyword, Finally block, OOPs , maven,  maven build clean, @configuration, @autowired, resttemplate, </t>
+  </si>
+  <si>
+    <t>Carvale - screening round</t>
+  </si>
+  <si>
+    <t>5 positive points professionally
+5 negative points professionally
+how much my manager will rate me out of 10
+why you want to switch
+where do you want to see yourself in 5 years</t>
   </si>
 </sst>
 </file>
@@ -461,9 +471,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE6597-3846-4001-8144-6C55CE1F05D9}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -575,6 +585,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45792</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/interviewExperience.xlsx
+++ b/interviewExperience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFB761F-3AAA-4DC4-BFBA-5CB5DFAFB2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0466D77-611C-490E-AF71-A7DB6B878668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -100,6 +100,16 @@
 how much my manager will rate me out of 10
 why you want to switch
 where do you want to see yourself in 5 years</t>
+  </si>
+  <si>
+    <t>Carvale - application design round</t>
+  </si>
+  <si>
+    <t>Project in deep, design pattern - cons, pros, 
+angular vs react, settimeout in angular, closures in javascript</t>
+  </si>
+  <si>
+    <t>cleared</t>
   </si>
 </sst>
 </file>
@@ -471,16 +481,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE6597-3846-4001-8144-6C55CE1F05D9}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="54.21875" style="2" customWidth="1"/>
     <col min="4" max="4" width="37.5546875" style="2" customWidth="1"/>
   </cols>
@@ -595,6 +605,20 @@
       <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45793</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/interviewExperience.xlsx
+++ b/interviewExperience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0466D77-611C-490E-AF71-A7DB6B878668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B7C466-FA93-4513-AA6D-8C7A28935096}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>cleared</t>
+  </si>
+  <si>
+    <t>cresensolutions - technical round</t>
+  </si>
+  <si>
+    <t>string isblank vs isempty, design pattern - factory pattern, singletone pattern , es and redis use, hashmap and hashcollision, final , finally , finalize, handle multiple exception in single catch, metaannotaion in springboot, implement auth using properties file before requesting to controller,  shallow copy and deep copy</t>
   </si>
 </sst>
 </file>
@@ -481,21 +487,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE6597-3846-4001-8144-6C55CE1F05D9}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="54.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45736</v>
       </c>
@@ -520,7 +526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45738</v>
       </c>
@@ -531,7 +537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45738</v>
       </c>
@@ -542,7 +548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45738</v>
       </c>
@@ -556,7 +562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45742</v>
       </c>
@@ -567,7 +573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45774</v>
       </c>
@@ -581,7 +587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45774</v>
       </c>
@@ -595,7 +601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45792</v>
       </c>
@@ -609,7 +615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45793</v>
       </c>
@@ -618,6 +624,20 @@
       </c>
       <c r="C10" s="3" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/interviewExperience.xlsx
+++ b/interviewExperience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B7C466-FA93-4513-AA6D-8C7A28935096}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C378F3B0-9F3A-41A5-B225-17EC7A1D4E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -112,10 +112,22 @@
     <t>cleared</t>
   </si>
   <si>
-    <t>cresensolutions - technical round</t>
-  </si>
-  <si>
     <t>string isblank vs isempty, design pattern - factory pattern, singletone pattern , es and redis use, hashmap and hashcollision, final , finally , finalize, handle multiple exception in single catch, metaannotaion in springboot, implement auth using properties file before requesting to controller,  shallow copy and deep copy</t>
+  </si>
+  <si>
+    <t>cresensolutions - technical round1</t>
+  </si>
+  <si>
+    <t>cresensolutions - technical round2</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>angular -  guards, subject and behaviour subject
+java - stateless and stateful operator, reflections, volatile, automatic, executer service, callable vs runnable, thread local, how to solve diamond problem of default method of interface
+spring boot - scope , transaction management, component vs bean, dependency injection, how to fix circular dependency, default scope of bean
+double check lock singletone pattern, circuit breaker pattern, SSE - server sent event</t>
   </si>
 </sst>
 </file>
@@ -487,21 +499,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE6597-3846-4001-8144-6C55CE1F05D9}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="54.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45736</v>
       </c>
@@ -526,7 +538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45738</v>
       </c>
@@ -537,7 +549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45738</v>
       </c>
@@ -548,7 +560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45738</v>
       </c>
@@ -562,7 +574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45742</v>
       </c>
@@ -573,7 +585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45774</v>
       </c>
@@ -587,7 +599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45774</v>
       </c>
@@ -601,7 +613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45792</v>
       </c>
@@ -615,7 +627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45793</v>
       </c>
@@ -626,18 +638,32 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45797</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/interviewExperience.xlsx
+++ b/interviewExperience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C378F3B0-9F3A-41A5-B225-17EC7A1D4E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CB117C-7FCB-4D97-80A3-34080B1323F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -128,6 +128,28 @@
 java - stateless and stateful operator, reflections, volatile, automatic, executer service, callable vs runnable, thread local, how to solve diamond problem of default method of interface
 spring boot - scope , transaction management, component vs bean, dependency injection, how to fix circular dependency, default scope of bean
 double check lock singletone pattern, circuit breaker pattern, SSE - server sent event</t>
+  </si>
+  <si>
+    <t>string vs stringbuffer vs string builder, code for second largest element - can i use Integer instead of int also can i solve 
+using only one variable, what is class and object, what is constructor, hashmap vs hashset, hashmap vs treemap, how hash map
+ works, oops, java15 features,  string equals vs ==, can i assign null to int and INTEGER, how you implemented 
+ rest api
+spring - dependency injection, if using @Autowired is it need to write constructur, what is mvc, 
+sql - second highest salalry, joins, create table, update table to add primary key, what if any column has duplicates can we
+make it primary, char vs varchar, view, index, sql vs mongodb, foreign key,</t>
+  </si>
+  <si>
+    <t>Starthealth</t>
+  </si>
+  <si>
+    <t>Accelya</t>
+  </si>
+  <si>
+    <t>java - comparabale vs comparator, string equals vs ==, how to cretae immutable data or class, how to implement method overiding,
+what to do so that no one can override method, static, trim method of string, intern method of string, how to create thread,
+can i start thread twice, wait vs sleep, execution flow - static block, instace block, constructor, access modifiers,
+code - [aaaa,bb,c] = a4b2c1 .
+sql - second highest salalry, transaction - what happen when success and fail,</t>
   </si>
 </sst>
 </file>
@@ -178,12 +200,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,171 +528,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE6597-3846-4001-8144-6C55CE1F05D9}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="54.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>45736</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>45738</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>45738</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>45738</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>45742</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>45774</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>45774</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>45792</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>45793</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>45797</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="12" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>45805</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45889</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45889</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/interviewExperience.xlsx
+++ b/interviewExperience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CB117C-7FCB-4D97-80A3-34080B1323F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1BA33D-51E4-4DDF-A451-9FD2FB216B9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -150,6 +150,34 @@
 can i start thread twice, wait vs sleep, execution flow - static block, instace block, constructor, access modifiers,
 code - [aaaa,bb,c] = a4b2c1 .
 sql - second highest salalry, transaction - what happen when success and fail,</t>
+  </si>
+  <si>
+    <t>Manager round</t>
+  </si>
+  <si>
+    <t>Hr round</t>
+  </si>
+  <si>
+    <t>cleared. Got offer</t>
+  </si>
+  <si>
+    <t>EY</t>
+  </si>
+  <si>
+    <t>Clover infotech , andheri</t>
+  </si>
+  <si>
+    <t>java - callable vs runnable, java 8 features, checked vs unchecked exceptions, how to implement thread, default and static method, internal working of hashmap, fail fast  and fail safe iterator, code - print frequecy of each vowel in string
+spring boot - global exception, spring security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collections, elastic search, oops, </t>
+  </si>
+  <si>
+    <t>Here rechnology</t>
+  </si>
+  <si>
+    <t>git, write unit tests , linux commands, project , pagination</t>
   </si>
 </sst>
 </file>
@@ -528,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE6597-3846-4001-8144-6C55CE1F05D9}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,26 +724,99 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45889</v>
+        <v>45869</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45889</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45889</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45894</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45914</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/interviewExperience.xlsx
+++ b/interviewExperience.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1BA33D-51E4-4DDF-A451-9FD2FB216B9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D50B8C-B434-4CE1-9D7C-8D5BBEBF4558}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -167,17 +167,23 @@
     <t>Clover infotech , andheri</t>
   </si>
   <si>
-    <t>java - callable vs runnable, java 8 features, checked vs unchecked exceptions, how to implement thread, default and static method, internal working of hashmap, fail fast  and fail safe iterator, code - print frequecy of each vowel in string
+    <t xml:space="preserve">collections, elastic search, oops, </t>
+  </si>
+  <si>
+    <t>Here rechnology</t>
+  </si>
+  <si>
+    <t>git, write unit tests , linux commands, project , pagination</t>
+  </si>
+  <si>
+    <t>java - callable vs runnable, java 8 features, checked vs unchecked exceptions, how to implement thread, default and static method, internal working of hashmap, fail fast  and fail safe iterator, singletone pattern,  optional class, code - print frequecy of each vowel in string
 spring boot - global exception, spring security</t>
   </si>
   <si>
-    <t xml:space="preserve">collections, elastic search, oops, </t>
-  </si>
-  <si>
-    <t>Here rechnology</t>
-  </si>
-  <si>
-    <t>git, write unit tests , linux commands, project , pagination</t>
+    <t>Transbank</t>
+  </si>
+  <si>
+    <t>which  waterfall or agile model used, what is jwt token, projects, how you implement rest api - what are key points of rest api, how you will upgrade angular project version with zero downgrade time, if you have latency of 5ms how you will debug it , java memory model - with concurrency perspective, why do you want to join transbank, why do you want to leave current organization</t>
   </si>
 </sst>
 </file>
@@ -556,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE6597-3846-4001-8144-6C55CE1F05D9}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,10 +735,10 @@
         <v>45869</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>27</v>
@@ -785,7 +791,7 @@
         <v>36</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>23</v>
@@ -813,10 +819,21 @@
         <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45916</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/interviewExperience.xlsx
+++ b/interviewExperience.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D50B8C-B434-4CE1-9D7C-8D5BBEBF4558}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78904AF5-FFAD-4E28-BCED-FF388A6CFFF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -184,6 +184,14 @@
   </si>
   <si>
     <t>which  waterfall or agile model used, what is jwt token, projects, how you implement rest api - what are key points of rest api, how you will upgrade angular project version with zero downgrade time, if you have latency of 5ms how you will debug it , java memory model - with concurrency perspective, why do you want to join transbank, why do you want to leave current organization</t>
+  </si>
+  <si>
+    <t>Sharekhan , Kanjur</t>
+  </si>
+  <si>
+    <t>oops, hashmap internal working, linked hashmap internal working, design pattern - singletone 5 types 
+project - how you cut deployment time, why redis, 
+program - list repeated words in string in given order</t>
   </si>
 </sst>
 </file>
@@ -562,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE6597-3846-4001-8144-6C55CE1F05D9}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,6 +844,17 @@
         <v>43</v>
       </c>
     </row>
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/interviewExperience.xlsx
+++ b/interviewExperience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78904AF5-FFAD-4E28-BCED-FF388A6CFFF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4723E2FD-7777-486E-8F9A-585E1C61C82A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -192,6 +192,9 @@
     <t>oops, hashmap internal working, linked hashmap internal working, design pattern - singletone 5 types 
 project - how you cut deployment time, why redis, 
 program - list repeated words in string in given order</t>
+  </si>
+  <si>
+    <t>code for producer consumer problem and consumer will be process by two threads, print 1 to 10 using 5 threads, http vs websocket, tcp</t>
   </si>
 </sst>
 </file>
@@ -570,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE6597-3846-4001-8144-6C55CE1F05D9}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,6 +765,9 @@
       <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -853,6 +859,20 @@
       </c>
       <c r="C21" s="1" t="s">
         <v>45</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/interviewExperience.xlsx
+++ b/interviewExperience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4723E2FD-7777-486E-8F9A-585E1C61C82A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FD95F1-CEDF-4069-9256-C8DC27608411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -195,6 +195,19 @@
   </si>
   <si>
     <t>code for producer consumer problem and consumer will be process by two threads, print 1 to 10 using 5 threads, http vs websocket, tcp</t>
+  </si>
+  <si>
+    <t>Neosoft</t>
+  </si>
+  <si>
+    <t>Nimbal, Andheri</t>
+  </si>
+  <si>
+    <t>interface, sql queries</t>
+  </si>
+  <si>
+    <t>optional.of vs optional.ofnullable, @springbootapplication, @transaction, singletone pattern, 
+code - [aaaa,bb,c] = a4b2c1 .</t>
   </si>
 </sst>
 </file>
@@ -573,22 +586,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE6597-3846-4001-8144-6C55CE1F05D9}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -602,7 +615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45736</v>
       </c>
@@ -613,7 +626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45738</v>
       </c>
@@ -624,7 +637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45738</v>
       </c>
@@ -635,7 +648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45738</v>
       </c>
@@ -649,7 +662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45742</v>
       </c>
@@ -660,7 +673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45774</v>
       </c>
@@ -674,7 +687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45774</v>
       </c>
@@ -688,7 +701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45792</v>
       </c>
@@ -702,7 +715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45793</v>
       </c>
@@ -713,7 +726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45797</v>
       </c>
@@ -727,7 +740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45805</v>
       </c>
@@ -741,7 +754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45869</v>
       </c>
@@ -755,7 +768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45889</v>
       </c>
@@ -769,7 +782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="199.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>45889</v>
       </c>
@@ -783,7 +796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45891</v>
       </c>
@@ -797,7 +810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>45891</v>
       </c>
@@ -811,7 +824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>45894</v>
       </c>
@@ -825,7 +838,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>45914</v>
       </c>
@@ -839,7 +852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>45916</v>
       </c>
@@ -850,7 +863,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>45919</v>
       </c>
@@ -864,7 +877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>45930</v>
       </c>
@@ -873,6 +886,28 @@
       </c>
       <c r="C22" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>45942</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/interviewExperience.xlsx
+++ b/interviewExperience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FD95F1-CEDF-4069-9256-C8DC27608411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C489AFF-2A80-4436-865D-8C903A371904}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -208,6 +208,14 @@
   <si>
     <t>optional.of vs optional.ofnullable, @springbootapplication, @transaction, singletone pattern, 
 code - [aaaa,bb,c] = a4b2c1 .</t>
+  </si>
+  <si>
+    <t>Godrej Capital</t>
+  </si>
+  <si>
+    <t>aggragation, composition, how to avoid deadlock, volatile , automic, hashmap, design principals, design patterns find employee with salary greater than 20k
+dependency injection vs ioc, which di best
+directives in angular, how to optimize angular application</t>
   </si>
 </sst>
 </file>
@@ -586,22 +594,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE6597-3846-4001-8144-6C55CE1F05D9}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -615,7 +623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45736</v>
       </c>
@@ -626,7 +634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45738</v>
       </c>
@@ -637,7 +645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45738</v>
       </c>
@@ -648,7 +656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45738</v>
       </c>
@@ -662,7 +670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45742</v>
       </c>
@@ -673,7 +681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45774</v>
       </c>
@@ -687,7 +695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45774</v>
       </c>
@@ -701,7 +709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45792</v>
       </c>
@@ -715,7 +723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45793</v>
       </c>
@@ -726,7 +734,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45797</v>
       </c>
@@ -740,7 +748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45805</v>
       </c>
@@ -754,7 +762,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45869</v>
       </c>
@@ -768,7 +776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45889</v>
       </c>
@@ -782,7 +790,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="199.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45889</v>
       </c>
@@ -796,7 +804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45891</v>
       </c>
@@ -810,7 +818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45891</v>
       </c>
@@ -824,7 +832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45894</v>
       </c>
@@ -838,7 +846,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45914</v>
       </c>
@@ -852,7 +860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45916</v>
       </c>
@@ -863,7 +871,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45919</v>
       </c>
@@ -877,7 +885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45930</v>
       </c>
@@ -888,7 +896,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45937</v>
       </c>
@@ -899,7 +907,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45942</v>
       </c>
@@ -908,6 +916,20 @@
       </c>
       <c r="C24" s="1" t="s">
         <v>50</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45959</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/interviewExperience.xlsx
+++ b/interviewExperience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C489AFF-2A80-4436-865D-8C903A371904}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFA858B-6687-4730-9FB0-7043F6C9C65A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
   </bookViews>
@@ -200,12 +200,6 @@
     <t>Neosoft</t>
   </si>
   <si>
-    <t>Nimbal, Andheri</t>
-  </si>
-  <si>
-    <t>interface, sql queries</t>
-  </si>
-  <si>
     <t>optional.of vs optional.ofnullable, @springbootapplication, @transaction, singletone pattern, 
 code - [aaaa,bb,c] = a4b2c1 .</t>
   </si>
@@ -213,9 +207,15 @@
     <t>Godrej Capital</t>
   </si>
   <si>
+    <t>Nimbal, Andheri, Face to face</t>
+  </si>
+  <si>
+    <t>interface, sql queries,  if I increase columns in database table how to reduce time</t>
+  </si>
+  <si>
     <t>aggragation, composition, how to avoid deadlock, volatile , automic, hashmap, design principals, design patterns find employee with salary greater than 20k
 dependency injection vs ioc, which di best
-directives in angular, how to optimize angular application</t>
+directives in angular, how to optimize angular application, what is user and role, what is iam</t>
   </si>
 </sst>
 </file>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE6597-3846-4001-8144-6C55CE1F05D9}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="97" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,15 +896,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45937</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -915,18 +915,18 @@
         <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45959</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>52</v>

--- a/interviewExperience.xlsx
+++ b/interviewExperience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFA858B-6687-4730-9FB0-7043F6C9C65A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A28A63-33FF-4D68-8FEB-B970BF2502F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -216,6 +216,30 @@
     <t>aggragation, composition, how to avoid deadlock, volatile , automic, hashmap, design principals, design patterns find employee with salary greater than 20k
 dependency injection vs ioc, which di best
 directives in angular, how to optimize angular application, what is user and role, what is iam</t>
+  </si>
+  <si>
+    <t>Xoriant</t>
+  </si>
+  <si>
+    <t>not cleared</t>
+  </si>
+  <si>
+    <t>Autoplant, ghansoli</t>
+  </si>
+  <si>
+    <t>got offer</t>
+  </si>
+  <si>
+    <t>Godrej Capital, kanjur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java 8, how to achieve scalability, ci cd, load balancer, how to secure microservices, how to achieve pagination, how to optimize sql queries, normalization and denormalization, first non repeating character using streams, equals vs ==, how to find delay in programs, hashmap internal working, hashmap vs concurrent hashmap, communication between microservices, @transactional, sql to find duplicate name of employees, jpa vs hibernate, transaction management in jdbc vs spring boot, how spring boot validate jwt token, how to create dynamic interfaces, how you achieved redundancy and cut deployment time, </t>
+  </si>
+  <si>
+    <t>asked coding questions</t>
+  </si>
+  <si>
+    <t>sr. no</t>
   </si>
 </sst>
 </file>
@@ -594,342 +618,1887 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE6597-3846-4001-8144-6C55CE1F05D9}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="97" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="97" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>45736</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
         <v>45738</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
         <v>45738</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
         <v>45738</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
         <v>45742</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
         <v>45774</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
         <v>45774</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
         <v>45792</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
         <v>45793</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="E10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
         <v>45797</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
         <v>45805</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
         <v>45869</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="240" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
         <v>45889</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:5" ht="199.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
         <v>45889</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
         <v>45891</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
         <v>45891</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
         <v>45894</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
         <v>45914</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
         <v>45916</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
         <v>45919</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
         <v>45930</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
         <v>45937</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>45942</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45941</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
         <v>45959</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45961</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45965</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45970</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" s="3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" s="3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" s="3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" s="3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" s="3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" s="3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" s="3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" s="3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" s="3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" s="3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" s="3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" s="3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" s="3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" s="3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" s="3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" s="3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" s="3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" s="3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" s="3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" s="3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" s="3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" s="3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" s="3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" s="3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" s="3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" s="3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" s="3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" s="3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" s="3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" s="3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" s="3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" s="3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" s="3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" s="3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" s="3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" s="3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" s="3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" s="3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" s="3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" s="3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" s="3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" s="3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" s="3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" s="3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" s="3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" s="3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" s="3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" s="3">
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/interviewExperience.xlsx
+++ b/interviewExperience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A28A63-33FF-4D68-8FEB-B970BF2502F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E5D1DB-C3DC-4A57-B120-8EBEC1C3EC57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -233,13 +233,13 @@
     <t>Godrej Capital, kanjur</t>
   </si>
   <si>
-    <t xml:space="preserve">java 8, how to achieve scalability, ci cd, load balancer, how to secure microservices, how to achieve pagination, how to optimize sql queries, normalization and denormalization, first non repeating character using streams, equals vs ==, how to find delay in programs, hashmap internal working, hashmap vs concurrent hashmap, communication between microservices, @transactional, sql to find duplicate name of employees, jpa vs hibernate, transaction management in jdbc vs spring boot, how spring boot validate jwt token, how to create dynamic interfaces, how you achieved redundancy and cut deployment time, </t>
-  </si>
-  <si>
     <t>asked coding questions</t>
   </si>
   <si>
     <t>sr. no</t>
+  </si>
+  <si>
+    <t>java 8 features, how to achieve scalability, main stages of ci cd, load balancer, how to secure microservices, how to achieve pagination in backend , how to optimize sql queries, normalization and denormalization, first non repeating character using streams, equals vs ==, how to find delay in programs, hashmap internal working, hashmap vs concurrent hashmap, communication between microservices, @transactional, sql to find duplicate name of employees, jpa vs hibernate, transaction management in jdbc vs spring boot, how spring boot validate jwt token, how to create dynamic interfaces, how you achieved redundancy and cut deployment time,  reetrant lock,  how to prevent deadlock, spring actuators, what is declarative programming</t>
   </si>
 </sst>
 </file>
@@ -620,23 +620,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE6597-3846-4001-8144-6C55CE1F05D9}">
   <dimension ref="A1:E311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="97" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="97" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
-    <col min="2" max="2" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -665,7 +665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -679,7 +679,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -693,7 +693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -710,7 +710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -724,7 +724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -741,7 +741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -758,7 +758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -775,7 +775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -792,7 +792,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -809,7 +809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -826,7 +826,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -843,7 +843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -860,7 +860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="199.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -877,7 +877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -894,7 +894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -911,7 +911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -928,7 +928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -945,7 +945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -959,7 +959,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -976,7 +976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -990,7 +990,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1049,13 +1049,13 @@
         <v>53</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1080,1423 +1080,1423 @@
         <v>55</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>310</v>
       </c>

--- a/interviewExperience.xlsx
+++ b/interviewExperience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E5D1DB-C3DC-4A57-B120-8EBEC1C3EC57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4F5E57-EBD1-4A96-8552-3D2AF0D48891}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -240,6 +240,18 @@
   </si>
   <si>
     <t>java 8 features, how to achieve scalability, main stages of ci cd, load balancer, how to secure microservices, how to achieve pagination in backend , how to optimize sql queries, normalization and denormalization, first non repeating character using streams, equals vs ==, how to find delay in programs, hashmap internal working, hashmap vs concurrent hashmap, communication between microservices, @transactional, sql to find duplicate name of employees, jpa vs hibernate, transaction management in jdbc vs spring boot, how spring boot validate jwt token, how to create dynamic interfaces, how you achieved redundancy and cut deployment time,  reetrant lock,  how to prevent deadlock, spring actuators, what is declarative programming</t>
+  </si>
+  <si>
+    <t>first nonrepeating character, length of longest nonrepeating substring, collection framework, array vs arraylist, linkedlist vs arraylist, hashmap, hashset, linked hashmap, linkedhashset, equals vs == , contract between equals and hashCode method, can i put object as a key in hashmap, mutable vs immutable class, angular directives, decorators, modules, standalone component and how to import module into that, lifecycle, constructor vs ngOnInit why to use both, services</t>
+  </si>
+  <si>
+    <t>Wissen Technology, Andheri</t>
+  </si>
+  <si>
+    <t>Morgan Stanly from Synechron</t>
+  </si>
+  <si>
+    <t>stream api, hashcode and equals method - what if don’t override it., what if multile emp objects - different value and hashcode return 1 for all objects., comparble vs comparator in deep.</t>
   </si>
 </sst>
 </file>
@@ -620,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE6597-3846-4001-8144-6C55CE1F05D9}">
   <dimension ref="A1:E311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="97" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="97" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,14 +1098,35 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>45982</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45982</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">

--- a/interviewExperience.xlsx
+++ b/interviewExperience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4F5E57-EBD1-4A96-8552-3D2AF0D48891}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2876BE80-8CE1-4C98-8B54-FDD6258ACF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -251,7 +251,15 @@
     <t>Morgan Stanly from Synechron</t>
   </si>
   <si>
-    <t>stream api, hashcode and equals method - what if don’t override it., what if multile emp objects - different value and hashcode return 1 for all objects., comparble vs comparator in deep.</t>
+    <t>stream api, hashcode and equals method - what if don’t override it., what if multile emp objects - different value and hashcode return 1 for all objects.,  what if multile emp objects - same value and hashcode return 1 for all objects, what if only override hashcode not equals, what if only override equals not hashcode, comparble vs comparator in deep.</t>
+  </si>
+  <si>
+    <t>Morgan Stanly from Wissen Technology</t>
+  </si>
+  <si>
+    <t>sort characters in string by highest frequency and if frequency lie keep it in orginal order,
+merge two treemap so that if key exists in both map add their values otherwise keep it as it is,
+if I change onlye emp name while iterating will concurrrent modification exception get</t>
   </si>
 </sst>
 </file>
@@ -632,21 +640,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE6597-3846-4001-8144-6C55CE1F05D9}">
   <dimension ref="A1:E311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="97" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="97" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -663,7 +671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -677,7 +685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -691,7 +699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -705,7 +713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -722,7 +730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -736,7 +744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -753,7 +761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -770,7 +778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -787,7 +795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -804,7 +812,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -821,7 +829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -838,7 +846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -855,7 +863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -872,7 +880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="199.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -889,7 +897,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -906,7 +914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -923,7 +931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -940,7 +948,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -957,7 +965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -971,7 +979,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -988,7 +996,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1002,7 +1010,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1016,7 +1024,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1033,7 +1041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1050,7 +1058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1067,7 +1075,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1081,7 +1089,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1098,7 +1106,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1115,7 +1123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1129,1407 +1137,1416 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>45983</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="3">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="3">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="3">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="3">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" s="3">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" s="3">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" s="3">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" s="3">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" s="3">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" s="3">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" s="3">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" s="3">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" s="3">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" s="3">
         <v>310</v>
       </c>

--- a/interviewExperience.xlsx
+++ b/interviewExperience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2876BE80-8CE1-4C98-8B54-FDD6258ACF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21753866-BB74-44FB-AEF0-DCA08A050F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -260,6 +260,14 @@
     <t>sort characters in string by highest frequency and if frequency lie keep it in orginal order,
 merge two treemap so that if key exists in both map add their values otherwise keep it as it is,
 if I change onlye emp name while iterating will concurrrent modification exception get</t>
+  </si>
+  <si>
+    <t>Neosoft 2nd round</t>
+  </si>
+  <si>
+    <t xml:space="preserve">microservice design pattern, api gateway, circuit breaker and its default state, 
+steps to create jwt token in spring security, 
+steps to implement rolebased authtorization in spring security, </t>
   </si>
 </sst>
 </file>
@@ -641,7 +649,7 @@
   <dimension ref="A1:E311"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="97" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1151,9 +1159,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45985</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">

--- a/interviewExperience.xlsx
+++ b/interviewExperience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21753866-BB74-44FB-AEF0-DCA08A050F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D9634D-E43C-4C24-8DE1-2EE50BEE4A4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -268,6 +268,12 @@
     <t xml:space="preserve">microservice design pattern, api gateway, circuit breaker and its default state, 
 steps to create jwt token in spring security, 
 steps to implement rolebased authtorization in spring security, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namura </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hashmap, hashtable vs concurrent hashmap, arraylist vs linkedlist, threadpool, runnable vs callable, redis , spring boot flow, how to write custom queries, hashcode and equals all cases in hashmap, solid principles, procedure in sql, kafks vs rest api, why kafka over rest api,jpql, native queries, </t>
   </si>
 </sst>
 </file>
@@ -648,21 +654,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE6597-3846-4001-8144-6C55CE1F05D9}">
   <dimension ref="A1:E311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="97" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="97" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
-    <col min="2" max="2" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -679,7 +685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -693,7 +699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -707,7 +713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -721,7 +727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -738,7 +744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -752,7 +758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -769,7 +775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -786,7 +792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -803,7 +809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -820,7 +826,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -837,7 +843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -854,7 +860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -871,7 +877,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -888,7 +894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="199.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -905,7 +911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -922,7 +928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -939,7 +945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -956,7 +962,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -973,7 +979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -987,7 +993,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1004,7 +1010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1018,7 +1024,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1032,7 +1038,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1049,7 +1055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1066,7 +1072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1083,7 +1089,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1097,7 +1103,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1114,7 +1120,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1131,7 +1137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1145,7 +1151,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1159,7 +1165,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1173,1397 +1179,1406 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" s="2">
+        <v>45987</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>310</v>
       </c>

--- a/interviewExperience.xlsx
+++ b/interviewExperience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D9634D-E43C-4C24-8DE1-2EE50BEE4A4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDA8D42-B84D-44C9-AFA8-1BEED65EE90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -274,6 +274,12 @@
   </si>
   <si>
     <t xml:space="preserve">hashmap, hashtable vs concurrent hashmap, arraylist vs linkedlist, threadpool, runnable vs callable, redis , spring boot flow, how to write custom queries, hashcode and equals all cases in hashmap, solid principles, procedure in sql, kafks vs rest api, why kafka over rest api,jpql, native queries, </t>
+  </si>
+  <si>
+    <t>Loylti Rewardz Management Private Limited, Sakinaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code - rotate array by k, join method, sleep vs wait method - who release lock, multithreading, runnable vs callable, in spring I want to add multiple databases, spring security, jwt is used for authentication or authorization, code - prime number with edge cases, how you enhanced API performance,  want to have diffenrent database for different client, design patterns, </t>
   </si>
 </sst>
 </file>
@@ -356,9 +362,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -396,7 +402,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -502,7 +508,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -644,7 +650,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -654,21 +660,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE6597-3846-4001-8144-6C55CE1F05D9}">
   <dimension ref="A1:E311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="97" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="97" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
+    <col min="2" max="2" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.54296875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -685,7 +691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -699,7 +705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -713,7 +719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -727,7 +733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -744,7 +750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -758,7 +764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -775,7 +781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -792,7 +798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -809,7 +815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -826,7 +832,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -843,7 +849,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="174" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -860,7 +866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -877,7 +883,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="203" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -894,7 +900,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="199.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -911,7 +917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -928,7 +934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -945,7 +951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -962,7 +968,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -979,7 +985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -993,7 +999,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1010,7 +1016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1024,7 +1030,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1038,7 +1044,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1055,7 +1061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1072,7 +1078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1089,7 +1095,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1103,7 +1109,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1120,7 +1126,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1137,7 +1143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1151,7 +1157,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1165,7 +1171,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1179,7 +1185,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1193,1392 +1199,1410 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>45988</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>45989</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" s="3">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" s="3">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" s="3">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" s="3">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204" s="3">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205" s="3">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206" s="3">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218" s="3">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A220" s="3">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222" s="3">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224" s="3">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" s="3">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" s="3">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" s="3">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231" s="3">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232" s="3">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233" s="3">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234" s="3">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236" s="3">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A237" s="3">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238" s="3">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239" s="3">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240" s="3">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241" s="3">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242" s="3">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243" s="3">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244" s="3">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245" s="3">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246" s="3">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247" s="3">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248" s="3">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249" s="3">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250" s="3">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251" s="3">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252" s="3">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A253" s="3">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254" s="3">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255" s="3">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256" s="3">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257" s="3">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258" s="3">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259" s="3">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260" s="3">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261" s="3">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262" s="3">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263" s="3">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264" s="3">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265" s="3">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266" s="3">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267" s="3">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268" s="3">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269" s="3">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270" s="3">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271" s="3">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272" s="3">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A273" s="3">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A274" s="3">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A275" s="3">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276" s="3">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277" s="3">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A278" s="3">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279" s="3">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A280" s="3">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A281" s="3">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A282" s="3">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A283" s="3">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A284" s="3">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A285" s="3">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A286" s="3">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A287" s="3">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A288" s="3">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A289" s="3">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A290" s="3">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A291" s="3">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A292" s="3">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A293" s="3">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A294" s="3">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A295" s="3">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A296" s="3">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A297" s="3">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A298" s="3">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A299" s="3">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A300" s="3">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A301" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A302" s="3">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A303" s="3">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A304" s="3">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A305" s="3">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A306" s="3">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A307" s="3">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A308" s="3">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A309" s="3">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A310" s="3">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A311" s="3">
         <v>310</v>
       </c>

--- a/interviewExperience.xlsx
+++ b/interviewExperience.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDA8D42-B84D-44C9-AFA8-1BEED65EE90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08C7B5B-01C1-4945-92E9-11BBFAB026D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -273,13 +274,34 @@
     <t xml:space="preserve">Namura </t>
   </si>
   <si>
-    <t xml:space="preserve">hashmap, hashtable vs concurrent hashmap, arraylist vs linkedlist, threadpool, runnable vs callable, redis , spring boot flow, how to write custom queries, hashcode and equals all cases in hashmap, solid principles, procedure in sql, kafks vs rest api, why kafka over rest api,jpql, native queries, </t>
-  </si>
-  <si>
     <t>Loylti Rewardz Management Private Limited, Sakinaka</t>
   </si>
   <si>
-    <t xml:space="preserve">code - rotate array by k, join method, sleep vs wait method - who release lock, multithreading, runnable vs callable, in spring I want to add multiple databases, spring security, jwt is used for authentication or authorization, code - prime number with edge cases, how you enhanced API performance,  want to have diffenrent database for different client, design patterns, </t>
+    <t xml:space="preserve">hashmap, hashtable vs concurrent hashmap, arraylist vs linkedlist, threadpool, runnable vs callable, redis , spring boot flow, how to write custom queries, hashcode and equals all cases in hashmap, solid principles, procedure in sql, kafka vs rest api, why kafka over rest api,jpql, native queries, </t>
+  </si>
+  <si>
+    <t>CCIL, dadar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project, why redis over relational database, how you secured your application, jwt implementation code and how it works, how you configure security, implement custom linked list - why Node class should write inside main class and is it necessay, improve time complexity if addition operation in linked list, 
+code - List of books with name author publishdate 
+            List Books review - name Rating
+           After 2021 find books with author have rate more than 4             using stream - improve performance,
+producer consumer problem code - why while loop is necessary why not if,
+in your experience tell any scenario where you solved crital solutions or multiple approaches you got
+</t>
+  </si>
+  <si>
+    <t>cleared, but I don’t go for next round</t>
+  </si>
+  <si>
+    <t>redis over relational databases, why elastic search,  mircoservices, how microservices communication, what if few microservices fail, kafka, I want to get data from 3 microservices , how to get response in sequence in async, how you find latency in code, how to optimize API, how to optimize sql, what if i want 20k record from sql how to optimize query, after optimizing sql part i want to optimize code of that 20k data response, interface, abstract,  What if I write body to abstract method,  Square circle extend shape. Find area without knowing shape , batching, difference in component service and repository, throughput vs latency</t>
+  </si>
+  <si>
+    <t>have you used encode method</t>
+  </si>
+  <si>
+    <t>code - rotate array by k, join method, sleep vs wait method - who release lock, multithreading, runnable vs callable, in spring I want to add multiple databases, spring security, jwt is used for authentication or authorization, code - prime number with edge cases, how you enhanced API performance,  want to have different database for different client, how you add multiple databasesof same type and different type  in spring boot, design patterns, why redis, why elastic search is fast</t>
   </si>
 </sst>
 </file>
@@ -362,9 +384,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -402,7 +424,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -508,7 +530,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -650,7 +672,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -660,21 +682,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE6597-3846-4001-8144-6C55CE1F05D9}">
   <dimension ref="A1:E311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="97" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="97" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="3"/>
-    <col min="2" max="2" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.26953125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.54296875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="1" width="9.21875" style="3"/>
+    <col min="2" max="2" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.21875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -691,7 +713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -705,7 +727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -719,7 +741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -733,7 +755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -750,7 +772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -764,7 +786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -781,7 +803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -798,7 +820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -815,7 +837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -832,7 +854,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -849,7 +871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="174" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -866,7 +888,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -883,7 +905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="203" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -900,7 +922,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="199.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="199.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -917,7 +939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -934,7 +956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -951,7 +973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -968,7 +990,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -985,7 +1007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -999,7 +1021,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1016,7 +1038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1030,7 +1052,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1044,7 +1066,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1061,7 +1083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1078,7 +1100,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1095,7 +1117,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1109,7 +1131,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1126,7 +1148,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1143,7 +1165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1157,7 +1179,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1170,8 +1192,11 @@
       <c r="D31" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="E31" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1185,7 +1210,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1196,10 +1221,13 @@
         <v>69</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1207,13 +1235,16 @@
         <v>45988</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1221,1388 +1252,1409 @@
         <v>45989</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B36" s="2">
+        <v>45996</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B37" s="2">
+        <v>45997</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="3">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="3">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="3">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="3">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" s="3">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" s="3">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" s="3">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" s="3">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" s="3">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" s="3">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" s="3">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" s="3">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" s="3">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" s="3">
         <v>310</v>
       </c>

--- a/interviewExperience.xlsx
+++ b/interviewExperience.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08C7B5B-01C1-4945-92E9-11BBFAB026D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142A6733-235D-45DD-9924-45FB1544086C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{36F36E5F-40D3-4066-84DB-97792FF29F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -271,9 +270,6 @@
 steps to implement rolebased authtorization in spring security, </t>
   </si>
   <si>
-    <t xml:space="preserve">Namura </t>
-  </si>
-  <si>
     <t>Loylti Rewardz Management Private Limited, Sakinaka</t>
   </si>
   <si>
@@ -302,6 +298,12 @@
   </si>
   <si>
     <t>code - rotate array by k, join method, sleep vs wait method - who release lock, multithreading, runnable vs callable, in spring I want to add multiple databases, spring security, jwt is used for authentication or authorization, code - prime number with edge cases, how you enhanced API performance,  want to have different database for different client, how you add multiple databasesof same type and different type  in spring boot, design patterns, why redis, why elastic search is fast</t>
+  </si>
+  <si>
+    <t>Nomura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nomura </t>
   </si>
 </sst>
 </file>
@@ -384,9 +386,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -424,7 +426,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -530,7 +532,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -672,7 +674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -682,21 +684,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE6597-3846-4001-8144-6C55CE1F05D9}">
   <dimension ref="A1:E311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="97" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:C37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="97" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="3"/>
-    <col min="2" max="2" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.21875" style="3"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
+    <col min="2" max="2" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.54296875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -713,7 +715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -727,7 +729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -741,7 +743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -755,7 +757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -772,7 +774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -786,7 +788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -803,7 +805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -820,7 +822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -837,7 +839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -854,7 +856,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -871,7 +873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="174" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -888,7 +890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -905,7 +907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="203" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -922,7 +924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="199.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="199.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -939,7 +941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -956,7 +958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -973,7 +975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -990,7 +992,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1007,7 +1009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1021,7 +1023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1038,7 +1040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1052,7 +1054,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1066,7 +1068,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1083,7 +1085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1100,7 +1102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1117,7 +1119,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1131,7 +1133,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1148,7 +1150,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1165,7 +1167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1179,7 +1181,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1193,10 +1195,10 @@
         <v>66</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1210,7 +1212,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1218,16 +1220,16 @@
         <v>45987</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1235,16 +1237,16 @@
         <v>45988</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1252,13 +1254,13 @@
         <v>45989</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="203" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1266,16 +1268,16 @@
         <v>45996</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1283,1378 +1285,1390 @@
         <v>45997</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" s="3">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" s="3">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" s="3">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" s="3">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204" s="3">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205" s="3">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206" s="3">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218" s="3">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A220" s="3">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222" s="3">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224" s="3">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" s="3">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" s="3">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" s="3">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231" s="3">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232" s="3">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233" s="3">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234" s="3">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236" s="3">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A237" s="3">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238" s="3">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239" s="3">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240" s="3">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241" s="3">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242" s="3">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243" s="3">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244" s="3">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245" s="3">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246" s="3">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247" s="3">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248" s="3">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249" s="3">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250" s="3">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251" s="3">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252" s="3">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A253" s="3">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254" s="3">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255" s="3">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256" s="3">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257" s="3">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258" s="3">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259" s="3">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260" s="3">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261" s="3">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262" s="3">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263" s="3">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264" s="3">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265" s="3">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266" s="3">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267" s="3">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268" s="3">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269" s="3">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270" s="3">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271" s="3">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272" s="3">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A273" s="3">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A274" s="3">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A275" s="3">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276" s="3">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277" s="3">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A278" s="3">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279" s="3">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A280" s="3">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A281" s="3">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A282" s="3">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A283" s="3">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A284" s="3">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A285" s="3">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A286" s="3">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A287" s="3">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A288" s="3">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A289" s="3">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A290" s="3">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A291" s="3">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A292" s="3">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A293" s="3">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A294" s="3">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A295" s="3">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A296" s="3">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A297" s="3">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A298" s="3">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A299" s="3">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A300" s="3">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A301" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A302" s="3">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A303" s="3">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A304" s="3">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A305" s="3">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A306" s="3">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A307" s="3">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A308" s="3">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A309" s="3">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A310" s="3">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A311" s="3">
         <v>310</v>
       </c>
